--- a/data/trans_dic/P57_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,53; 40,69</t>
+          <t>31,27; 40,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,03; 48,35</t>
+          <t>38,62; 48,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,03; 37,29</t>
+          <t>27,16; 38,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,54; 51,63</t>
+          <t>43,51; 51,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,8; 37,77</t>
+          <t>31,01; 38,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,15; 48,34</t>
+          <t>42,6; 48,62</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,21; 37,39</t>
+          <t>27,24; 36,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,71; 52,77</t>
+          <t>42,96; 52,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,63; 30,15</t>
+          <t>20,33; 29,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,15; 48,86</t>
+          <t>40,83; 49,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,31; 32,0</t>
+          <t>25,32; 32,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,36; 49,87</t>
+          <t>42,62; 49,67</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,6; 33,54</t>
+          <t>25,1; 33,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,5; 87,07</t>
+          <t>47,13; 87,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 31,87</t>
+          <t>18,41; 31,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,09; 45,07</t>
+          <t>33,14; 45,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,68; 31,9</t>
+          <t>24,65; 32,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,73; 83,96</t>
+          <t>44,85; 83,31</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,3; 30,56</t>
+          <t>25,46; 30,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,89; 48,8</t>
+          <t>41,78; 48,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,02; 33,3</t>
+          <t>27,17; 33,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 44,0</t>
+          <t>18,29; 44,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,98; 30,94</t>
+          <t>26,72; 30,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 45,14</t>
+          <t>26,43; 45,01</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,88; 27,84</t>
+          <t>20,92; 28,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,64; 48,62</t>
+          <t>39,08; 48,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,1</t>
+          <t>15,65; 21,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,8; 34,54</t>
+          <t>21,74; 34,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,81; 23,34</t>
+          <t>18,71; 23,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,36; 38,62</t>
+          <t>28,31; 38,26</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,18; 51,09</t>
+          <t>38,59; 50,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,72; 73,05</t>
+          <t>52,6; 73,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,17; 30,75</t>
+          <t>25,12; 30,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,66; 45,42</t>
+          <t>38,42; 45,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,8; 33,84</t>
+          <t>28,88; 34,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,5; 50,95</t>
+          <t>43,52; 50,83</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,87; 32,16</t>
+          <t>28,71; 31,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>46,39; 62,99</t>
+          <t>46,41; 62,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,93; 27,96</t>
+          <t>24,84; 27,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,17; 41,01</t>
+          <t>31,0; 41,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,3; 29,46</t>
+          <t>27,21; 29,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,06; 50,15</t>
+          <t>40,63; 50,46</t>
         </is>
       </c>
     </row>
@@ -1171,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad mayor o igual a 9 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>153481</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>220224</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>110772</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>213263</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>264252</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>433487</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>133560; 174202</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>195119; 242631</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93734; 131380</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>194244; 231982</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>239465; 297863</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>405381; 462646</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>120224</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>214912</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91765</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>170810</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>211988</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>385722</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>102093; 137798</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>194001; 238279</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>75034; 109648</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>155540; 188031</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>188331; 239108</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>354845; 413529</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>151785</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>450593</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>40682</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64755</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>192467</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>515348</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>130248; 172423</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>314929; 584634</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30293; 51563</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>55316; 75978</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>168499; 219085</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>374588; 695780</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>477</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>319320</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>465969</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>250117</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>331843</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>569437</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>797812</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>291591; 351235</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>429999; 501778</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>224141; 276312</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>178210; 429764</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>526433; 609757</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>529458; 901746</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>605</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>150164</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>206441</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>135088</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>250189</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>285253</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>456630</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>129381; 173374</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>184706; 231462</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>115222; 156935</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>181994; 286717</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>253507; 318030</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>370842; 501065</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>129006</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>153763</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>299278</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>314735</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>428284</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>468499</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>110809; 145406</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>126498; 176076</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>270209; 329449</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>289069; 340614</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>393617; 465779</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>432117; 504676</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3350</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1023979</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1711902</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>927702</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1345595</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1951681</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3057497</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>968191; 1077407</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1562904; 2096252</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>873031; 983770</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1102895; 1459442</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1873943; 2029429</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2813837; 3494405</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P57_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Clase-trans_dic.xlsx
@@ -992,7 +992,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
